--- a/doc/bottles.xlsx
+++ b/doc/bottles.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php-my-cave\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0A3E21-2482-45F1-8B9F-F3ACF20604BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E94DFB-2D0D-439A-9250-E208FA2517DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4236" yWindow="5412" windowWidth="8892" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bottles" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -173,9 +174,6 @@
     <t>bouscat.jpg</t>
   </si>
   <si>
-    <t>BLOCK NINE</t>
-  </si>
-  <si>
     <t>California</t>
   </si>
   <si>
@@ -185,16 +183,10 @@
     <t>block_nine.jpg</t>
   </si>
   <si>
-    <t>DOMAINE SERENE</t>
-  </si>
-  <si>
     <t>Though subtle in its complexities, this wine is sure to please a wide range of enthusiasts. Notes of pomegranate will delight as the nutty finish completes the picture of a fine sipping experience.</t>
   </si>
   <si>
     <t>domaine_serene.jpg</t>
-  </si>
-  <si>
-    <t>BODEGA LURTON</t>
   </si>
   <si>
     <t>Pinot Gris</t>
@@ -1089,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,7 +1165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,7 +1188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1219,7 +1211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1265,7 +1257,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1312,9 +1304,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>2009</v>
       </c>
@@ -1325,19 +1315,17 @@
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>2007</v>
       </c>
@@ -1351,56 +1339,54 @@
         <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>2011</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="B13" s="1">
         <v>2009</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
